--- a/requirements & planning/burndown_Bas.xlsx
+++ b/requirements & planning/burndown_Bas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beds3\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GitHub\bas\requirements &amp; planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938DBCE1-A8CB-482E-8F4A-6B10E525DFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD87AEA-6F89-43B0-9778-A3A959F534DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Taak</t>
   </si>
@@ -581,25 +581,25 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1889,7 +1889,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2055,8 +2055,8 @@
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
+      <c r="D8" s="2">
+        <v>3</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2073,8 +2073,8 @@
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
+      <c r="D9" s="2">
+        <v>2</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2091,8 +2091,8 @@
         <v>2</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
+      <c r="D10" s="2">
+        <v>2</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2125,8 +2125,8 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
+      <c r="F12" s="2">
+        <v>1</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2143,8 +2143,8 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
+      <c r="F13" s="2">
+        <v>2</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -2175,8 +2175,8 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>32</v>
+      <c r="F15" s="2">
+        <v>2</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2589,31 +2589,31 @@
       </c>
       <c r="D41" s="7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F41" s="7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" ref="I41:J41" si="1">H$41-SUM(I3:I40)</f>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2666,6 +2666,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -2914,16 +2923,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2940,12 +2948,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>